--- a/experiments/HSA_20150714_MI/hsa_20150714_MI.xlsx
+++ b/experiments/HSA_20150714_MI/hsa_20150714_MI.xlsx
@@ -1,48 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13800"/>
-  </bookViews>
-  <sheets>
-    <sheet name="plate" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
-  <si>
-    <t>20150715a1</t>
-  </si>
-  <si>
-    <t>20150715a2</t>
-  </si>
-  <si>
-    <t>20150715a3</t>
-  </si>
-  <si>
-    <t>20150715a4</t>
-  </si>
-  <si>
-    <t>20150715a5</t>
-  </si>
-  <si>
-    <t>20150715a6</t>
-  </si>
-  <si>
-    <t>20150715a7</t>
-  </si>
-  <si>
-    <t>20150715a8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+  <si>
+    <t>20150716a1</t>
+  </si>
+  <si>
+    <t>20150716a2</t>
+  </si>
+  <si>
+    <t>20150716a3</t>
+  </si>
+  <si>
+    <t>20150716a4</t>
+  </si>
+  <si>
+    <t>20150716a5</t>
+  </si>
+  <si>
+    <t>20150716a6</t>
+  </si>
+  <si>
+    <t>20150716a7</t>
+  </si>
+  <si>
+    <t>20150716a8</t>
   </si>
   <si>
     <t>AcetylsalicylicAcid into HSA 1</t>
@@ -177,8 +173,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,16 +202,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -502,316 +499,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
+    <col width="9.10" min="5" max="5"/>
+    <col width="9.10" min="6" max="6"/>
+    <col width="9.10" min="7" max="7"/>
+    <col width="9.10" min="8" max="8"/>
+    <col width="9.10" min="9" max="9"/>
+    <col width="9.10" min="10" max="10"/>
+    <col width="9.10" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row spans="1:11" r="1">
+      <c t="s" r="A1">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row spans="1:11" r="2">
+      <c t="s" r="A2">
+        <v>0</v>
+      </c>
+      <c t="s" r="B2">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c t="s" r="C2">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c t="s" r="D2">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c t="s" r="E2">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c t="n" r="F2">
+        <v>0</v>
+      </c>
+      <c t="n" r="G2">
+        <v>0</v>
+      </c>
+      <c t="s" r="H2">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c t="s" r="I2">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c t="s" r="K2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row spans="1:11" r="3">
+      <c t="s" r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c t="s" r="B3">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c t="s" r="C3">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c t="s" r="D3">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c t="s" r="E3">
         <v>22</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c t="n" r="F3">
+        <v>0</v>
+      </c>
+      <c t="n" r="G3">
+        <v>0</v>
+      </c>
+      <c t="s" r="H3">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c t="s" r="I3">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c t="s" r="K3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row spans="1:11" r="4">
+      <c t="s" r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c t="s" r="B4">
+        <v>9</v>
+      </c>
+      <c t="s" r="C4">
+        <v>13</v>
+      </c>
+      <c t="s" r="D4">
+        <v>14</v>
+      </c>
+      <c t="s" r="E4">
+        <v>22</v>
+      </c>
+      <c t="n" r="F4">
+        <v>0</v>
+      </c>
+      <c t="n" r="G4">
+        <v>0</v>
+      </c>
+      <c t="s" r="H4">
+        <v>33</v>
+      </c>
+      <c t="s" r="I4">
+        <v>35</v>
+      </c>
+      <c t="s" r="K4">
+        <v>33</v>
+      </c>
+    </row>
+    <row spans="1:11" r="5">
+      <c t="s" r="A5">
+        <v>3</v>
+      </c>
+      <c t="s" r="B5">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c t="s" r="C5">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c t="s" r="D5">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c t="s" r="E5">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c t="n" r="F5">
         <v>0.04</v>
       </c>
-      <c r="G4">
-        <v>1.1250880840772775</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
+      <c t="n" r="G5">
+        <v>0.7272776415146528</v>
+      </c>
+      <c t="s" r="H5">
+        <v>37</v>
+      </c>
+      <c t="s" r="I5">
+        <v>39</v>
+      </c>
+      <c t="s" r="K5">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row spans="1:11" r="6">
+      <c t="s" r="A6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B6">
+        <v>21</v>
+      </c>
+      <c t="s" r="C6">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c t="s" r="D6">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c t="s" r="E6">
         <v>22</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+      <c t="n" r="G6">
+        <v>0</v>
+      </c>
+      <c t="s" r="H6">
+        <v>26</v>
+      </c>
+      <c t="s" r="I6">
+        <v>28</v>
+      </c>
+      <c t="s" r="K6">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row spans="1:11" r="7">
+      <c t="s" r="A7">
+        <v>5</v>
+      </c>
+      <c t="s" r="B7">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c t="s" r="C7">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c t="s" r="D7">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c t="s" r="E7">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c t="n" r="F7">
         <v>0.04</v>
       </c>
-      <c r="G6">
-        <v>1.7443451667374303</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
+      <c t="n" r="G7">
+        <v>0.4863596469105892</v>
+      </c>
+      <c t="s" r="H7">
+        <v>30</v>
+      </c>
+      <c t="s" r="I7">
+        <v>32</v>
+      </c>
+      <c t="s" r="K7">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
+    <row spans="1:11" r="8">
+      <c t="s" r="A8">
+        <v>6</v>
+      </c>
+      <c t="s" r="B8">
+        <v>48</v>
+      </c>
+      <c t="s" r="C8">
+        <v>41</v>
+      </c>
+      <c t="s" r="D8">
+        <v>15</v>
+      </c>
+      <c t="s" r="E8">
+        <v>22</v>
+      </c>
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+      <c t="n" r="G8">
+        <v>0</v>
+      </c>
+      <c t="s" r="H8">
+        <v>34</v>
+      </c>
+      <c t="s" r="I8">
+        <v>36</v>
+      </c>
+      <c t="s" r="K8">
+        <v>34</v>
+      </c>
+    </row>
+    <row spans="1:11" r="9">
+      <c t="s" r="A9">
+        <v>7</v>
+      </c>
+      <c t="s" r="B9">
+        <v>49</v>
+      </c>
+      <c t="s" r="C9">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c t="s" r="D9">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c t="s" r="E9">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+      <c t="n" r="G9">
+        <v>0</v>
+      </c>
+      <c t="s" r="H9">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c t="s" r="I9">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c t="s" r="K9">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/experiments/HSA_20150714_MI/hsa_20150714_MI.xlsx
+++ b/experiments/HSA_20150714_MI/hsa_20150714_MI.xlsx
@@ -1,44 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="11190"/>
+  </bookViews>
+  <sheets>
+    <sheet name="plate" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>20150716a1</t>
-  </si>
-  <si>
-    <t>20150716a2</t>
-  </si>
-  <si>
-    <t>20150716a3</t>
-  </si>
-  <si>
-    <t>20150716a4</t>
-  </si>
-  <si>
-    <t>20150716a5</t>
-  </si>
-  <si>
-    <t>20150716a6</t>
-  </si>
-  <si>
-    <t>20150716a7</t>
-  </si>
-  <si>
-    <t>20150716a8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+  <si>
+    <t>20150717a1</t>
+  </si>
+  <si>
+    <t>20150717a2</t>
+  </si>
+  <si>
+    <t>20150717a3</t>
+  </si>
+  <si>
+    <t>20150717a4</t>
+  </si>
+  <si>
+    <t>20150717a5</t>
+  </si>
+  <si>
+    <t>20150717a6</t>
+  </si>
+  <si>
+    <t>20150717a7</t>
+  </si>
+  <si>
+    <t>20150717a8</t>
+  </si>
+  <si>
+    <t>20150717a9</t>
   </si>
   <si>
     <t>AcetylsalicylicAcid into HSA 1</t>
@@ -62,9 +64,6 @@
     <t>ChoderaHSA20.inj</t>
   </si>
   <si>
-    <t>ChoderaLHSA20.inj</t>
-  </si>
-  <si>
     <t>ChoderaWaterWater5.inj</t>
   </si>
   <si>
@@ -98,12 +97,18 @@
     <t>Plate1, A2</t>
   </si>
   <si>
+    <t>Plate1, A3</t>
+  </si>
+  <si>
     <t>Plate1, B1</t>
   </si>
   <si>
     <t>Plate1, B2</t>
   </si>
   <si>
+    <t>Plate1, B3</t>
+  </si>
+  <si>
     <t>Plate1, C1</t>
   </si>
   <si>
@@ -143,9 +148,6 @@
     <t>Plates Clean.setup</t>
   </si>
   <si>
-    <t>Plates Standard.setup</t>
-  </si>
-  <si>
     <t>PreRinseSource</t>
   </si>
   <si>
@@ -158,6 +160,9 @@
     <t>SaveSampleDestination</t>
   </si>
   <si>
+    <t>buffer into HSA 1</t>
+  </si>
+  <si>
     <t>buffer into buffer 1</t>
   </si>
   <si>
@@ -168,14 +173,16 @@
   </si>
   <si>
     <t>water into water 1</t>
+  </si>
+  <si>
+    <t>Plates.setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +209,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -290,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,6 +337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,322 +513,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.10" min="1" max="1"/>
-    <col width="9.10" min="2" max="2"/>
-    <col width="9.10" min="3" max="3"/>
-    <col width="9.10" min="4" max="4"/>
-    <col width="9.10" min="5" max="5"/>
-    <col width="9.10" min="6" max="6"/>
-    <col width="9.10" min="7" max="7"/>
-    <col width="9.10" min="8" max="8"/>
-    <col width="9.10" min="9" max="9"/>
-    <col width="9.10" min="10" max="10"/>
-    <col width="9.10" min="11" max="11"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:11" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="C1">
-        <v>45</v>
-      </c>
-      <c t="s" r="D1">
-        <v>19</v>
-      </c>
-      <c t="s" r="E1">
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="F1">
-        <v>11</v>
-      </c>
-      <c t="s" r="G1">
-        <v>23</v>
-      </c>
-      <c t="s" r="H1">
-        <v>12</v>
-      </c>
-      <c t="s" r="I1">
-        <v>24</v>
-      </c>
-      <c t="s" r="J1">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>0.7272776415146528</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>0.04</v>
+      </c>
+      <c r="G7">
+        <v>0.48635964691058919</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>0.04</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="K1">
-        <v>46</v>
-      </c>
-    </row>
-    <row spans="1:11" r="2">
-      <c t="s" r="A2">
-        <v>0</v>
-      </c>
-      <c t="s" r="B2">
-        <v>50</v>
-      </c>
-      <c t="s" r="C2">
-        <v>13</v>
-      </c>
-      <c t="s" r="D2">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="E2">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c t="n" r="F2">
-        <v>0</v>
-      </c>
-      <c t="n" r="G2">
-        <v>0</v>
-      </c>
-      <c t="s" r="H2">
-        <v>25</v>
-      </c>
-      <c t="s" r="I2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="K2">
-        <v>25</v>
-      </c>
-    </row>
-    <row spans="1:11" r="3">
-      <c t="s" r="A3">
-        <v>1</v>
-      </c>
-      <c t="s" r="B3">
-        <v>47</v>
-      </c>
-      <c t="s" r="C3">
-        <v>13</v>
-      </c>
-      <c t="s" r="D3">
-        <v>14</v>
-      </c>
-      <c t="s" r="E3">
-        <v>22</v>
-      </c>
-      <c t="n" r="F3">
-        <v>0</v>
-      </c>
-      <c t="n" r="G3">
-        <v>0</v>
-      </c>
-      <c t="s" r="H3">
-        <v>29</v>
-      </c>
-      <c t="s" r="I3">
-        <v>31</v>
-      </c>
-      <c t="s" r="K3">
-        <v>29</v>
-      </c>
-    </row>
-    <row spans="1:11" r="4">
-      <c t="s" r="A4">
-        <v>2</v>
-      </c>
-      <c t="s" r="B4">
-        <v>9</v>
-      </c>
-      <c t="s" r="C4">
-        <v>13</v>
-      </c>
-      <c t="s" r="D4">
-        <v>14</v>
-      </c>
-      <c t="s" r="E4">
-        <v>22</v>
-      </c>
-      <c t="n" r="F4">
-        <v>0</v>
-      </c>
-      <c t="n" r="G4">
-        <v>0</v>
-      </c>
-      <c t="s" r="H4">
-        <v>33</v>
-      </c>
-      <c t="s" r="I4">
-        <v>35</v>
-      </c>
-      <c t="s" r="K4">
-        <v>33</v>
-      </c>
-    </row>
-    <row spans="1:11" r="5">
-      <c t="s" r="A5">
-        <v>3</v>
-      </c>
-      <c t="s" r="B5">
-        <v>8</v>
-      </c>
-      <c t="s" r="C5">
-        <v>42</v>
-      </c>
-      <c t="s" r="D5">
-        <v>14</v>
-      </c>
-      <c t="s" r="E5">
-        <v>22</v>
-      </c>
-      <c t="n" r="F5">
-        <v>0.04</v>
-      </c>
-      <c t="n" r="G5">
-        <v>0.7272776415146528</v>
-      </c>
-      <c t="s" r="H5">
-        <v>37</v>
-      </c>
-      <c t="s" r="I5">
-        <v>39</v>
-      </c>
-      <c t="s" r="K5">
-        <v>37</v>
-      </c>
-    </row>
-    <row spans="1:11" r="6">
-      <c t="s" r="A6">
-        <v>4</v>
-      </c>
-      <c t="s" r="B6">
-        <v>21</v>
-      </c>
-      <c t="s" r="C6">
-        <v>13</v>
-      </c>
-      <c t="s" r="D6">
-        <v>14</v>
-      </c>
-      <c t="s" r="E6">
-        <v>22</v>
-      </c>
-      <c t="n" r="F6">
-        <v>0</v>
-      </c>
-      <c t="n" r="G6">
-        <v>0</v>
-      </c>
-      <c t="s" r="H6">
-        <v>26</v>
-      </c>
-      <c t="s" r="I6">
-        <v>28</v>
-      </c>
-      <c t="s" r="K6">
-        <v>26</v>
-      </c>
-    </row>
-    <row spans="1:11" r="7">
-      <c t="s" r="A7">
-        <v>5</v>
-      </c>
-      <c t="s" r="B7">
-        <v>20</v>
-      </c>
-      <c t="s" r="C7">
-        <v>42</v>
-      </c>
-      <c t="s" r="D7">
-        <v>14</v>
-      </c>
-      <c t="s" r="E7">
-        <v>22</v>
-      </c>
-      <c t="n" r="F7">
-        <v>0.04</v>
-      </c>
-      <c t="n" r="G7">
-        <v>0.4863596469105892</v>
-      </c>
-      <c t="s" r="H7">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="I7">
-        <v>32</v>
-      </c>
-      <c t="s" r="K7">
-        <v>30</v>
-      </c>
-    </row>
-    <row spans="1:11" r="8">
-      <c t="s" r="A8">
-        <v>6</v>
-      </c>
-      <c t="s" r="B8">
-        <v>48</v>
-      </c>
-      <c t="s" r="C8">
-        <v>41</v>
-      </c>
-      <c t="s" r="D8">
-        <v>15</v>
-      </c>
-      <c t="s" r="E8">
-        <v>22</v>
-      </c>
-      <c t="n" r="F8">
-        <v>0</v>
-      </c>
-      <c t="n" r="G8">
-        <v>0</v>
-      </c>
-      <c t="s" r="H8">
-        <v>34</v>
-      </c>
-      <c t="s" r="I8">
-        <v>36</v>
-      </c>
-      <c t="s" r="K8">
-        <v>34</v>
-      </c>
-    </row>
-    <row spans="1:11" r="9">
-      <c t="s" r="A9">
-        <v>7</v>
-      </c>
-      <c t="s" r="B9">
-        <v>49</v>
-      </c>
-      <c t="s" r="C9">
-        <v>13</v>
-      </c>
-      <c t="s" r="D9">
-        <v>16</v>
-      </c>
-      <c t="s" r="E9">
-        <v>17</v>
-      </c>
-      <c t="n" r="F9">
-        <v>0</v>
-      </c>
-      <c t="n" r="G9">
-        <v>0</v>
-      </c>
-      <c t="s" r="H9">
-        <v>38</v>
-      </c>
-      <c t="s" r="I9">
-        <v>40</v>
-      </c>
-      <c t="s" r="K9">
-        <v>38</v>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>